--- a/staffing_table.xlsx
+++ b/staffing_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Управление</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Доступно вакансий</t>
   </si>
   <si>
-    <t>DC</t>
+    <t>Управление по городу Алматы</t>
   </si>
   <si>
     <t>Эксперт</t>
-  </si>
-  <si>
-    <t>Глав эксперт</t>
   </si>
 </sst>
 </file>
@@ -372,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
@@ -405,17 +402,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
